--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_dyn_pf_sc_results_3_bus.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_dyn_pf_sc_results_3_bus.xlsx
@@ -10256,7 +10256,7 @@
         <v>1.056597221450648</v>
       </c>
       <c r="Q2">
-        <v>26.67016311516074</v>
+        <v>26.67016311516075</v>
       </c>
       <c r="R2">
         <v>-91.68229557616606</v>
@@ -10312,10 +10312,10 @@
         <v>0.4711324625045255</v>
       </c>
       <c r="P3">
-        <v>0.8867526821368246</v>
+        <v>0.8867526821368243</v>
       </c>
       <c r="Q3">
-        <v>11.70358232174644</v>
+        <v>11.70358232174647</v>
       </c>
       <c r="R3">
         <v>-113.1797985005416</v>
@@ -10368,19 +10368,19 @@
         <v>1.004840030213502</v>
       </c>
       <c r="O4">
-        <v>0.2355662312557481</v>
+        <v>0.2355662312557483</v>
       </c>
       <c r="P4">
-        <v>0.9127115190423151</v>
+        <v>0.9127115190423147</v>
       </c>
       <c r="Q4">
-        <v>6.18582776475129</v>
+        <v>6.185827764751336</v>
       </c>
       <c r="R4">
-        <v>-113.1797984957915</v>
+        <v>-113.1797984957914</v>
       </c>
       <c r="S4">
-        <v>173.1869568170008</v>
+        <v>173.1869568170009</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10406,22 +10406,22 @@
         <v>34.58697219773961</v>
       </c>
       <c r="H5">
-        <v>7.413051324193639</v>
+        <v>7.413051324193644</v>
       </c>
       <c r="I5">
-        <v>3.390143041356974</v>
+        <v>3.390143041356972</v>
       </c>
       <c r="J5">
-        <v>1.147731927164112</v>
+        <v>1.147731927164117</v>
       </c>
       <c r="K5">
         <v>3.488438701404433</v>
       </c>
       <c r="L5">
-        <v>1.1477319271709</v>
+        <v>1.147731927170902</v>
       </c>
       <c r="M5">
-        <v>3.488438701416181</v>
+        <v>3.48843870141618</v>
       </c>
       <c r="N5">
         <v>0.9526279648043285</v>
@@ -10433,7 +10433,7 @@
         <v>0.9526279648061715</v>
       </c>
       <c r="Q5">
-        <v>-1.471317341126438E-11</v>
+        <v>-1.467424743646772E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -10486,13 +10486,13 @@
         <v>1.004840030206317</v>
       </c>
       <c r="O6">
-        <v>0.2355662312598145</v>
+        <v>0.2355662312598147</v>
       </c>
       <c r="P6">
-        <v>0.9127115190507498</v>
+        <v>0.9127115190507497</v>
       </c>
       <c r="Q6">
-        <v>6.185827765114833</v>
+        <v>6.185827765114874</v>
       </c>
       <c r="R6">
         <v>-113.1797984912246</v>
